--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.3766763955039</v>
+        <v>11.3536155</v>
       </c>
       <c r="H2">
-        <v>9.3766763955039</v>
+        <v>22.707231</v>
       </c>
       <c r="I2">
-        <v>0.1435383017195088</v>
+        <v>0.1610666555281549</v>
       </c>
       <c r="J2">
-        <v>0.1435383017195088</v>
+        <v>0.1379309236788346</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.50091655847057</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N2">
-        <v>0.50091655847057</v>
+        <v>1.005135</v>
       </c>
       <c r="O2">
-        <v>0.002911497918145221</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P2">
-        <v>0.002911497918145221</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q2">
-        <v>4.696932469928043</v>
+        <v>5.705958157796251</v>
       </c>
       <c r="R2">
-        <v>4.696932469928043</v>
+        <v>22.823832631185</v>
       </c>
       <c r="S2">
-        <v>0.0004179114666304506</v>
+        <v>0.0004376534292599339</v>
       </c>
       <c r="T2">
-        <v>0.0004179114666304506</v>
+        <v>0.0002502170415659822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.3766763955039</v>
+        <v>11.3536155</v>
       </c>
       <c r="H3">
-        <v>9.3766763955039</v>
+        <v>22.707231</v>
       </c>
       <c r="I3">
-        <v>0.1435383017195088</v>
+        <v>0.1610666555281549</v>
       </c>
       <c r="J3">
-        <v>0.1435383017195088</v>
+        <v>0.1379309236788346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>170.507715292399</v>
+        <v>182.713089</v>
       </c>
       <c r="N3">
-        <v>170.507715292399</v>
+        <v>548.139267</v>
       </c>
       <c r="O3">
-        <v>0.9910490074779278</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P3">
-        <v>0.9910490074779278</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q3">
-        <v>1598.795669233537</v>
+        <v>2074.454159323279</v>
       </c>
       <c r="R3">
-        <v>1598.795669233537</v>
+        <v>12446.72495593968</v>
       </c>
       <c r="S3">
-        <v>0.1422534914541866</v>
+        <v>0.1591129748173638</v>
       </c>
       <c r="T3">
-        <v>0.1422534914541866</v>
+        <v>0.1364530990910534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.3766763955039</v>
+        <v>11.3536155</v>
       </c>
       <c r="H4">
-        <v>9.3766763955039</v>
+        <v>22.707231</v>
       </c>
       <c r="I4">
-        <v>0.1435383017195088</v>
+        <v>0.1610666555281549</v>
       </c>
       <c r="J4">
-        <v>0.1435383017195088</v>
+        <v>0.1379309236788346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.882876332033295</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N4">
-        <v>0.882876332033295</v>
+        <v>0.454792</v>
       </c>
       <c r="O4">
-        <v>0.005131578422049008</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P4">
-        <v>0.005131578422049008</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q4">
-        <v>8.278445662725661</v>
+        <v>1.721177833492</v>
       </c>
       <c r="R4">
-        <v>8.278445662725661</v>
+        <v>10.327067000952</v>
       </c>
       <c r="S4">
-        <v>0.0007365780518413915</v>
+        <v>0.0001320162819919605</v>
       </c>
       <c r="T4">
-        <v>0.0007365780518413915</v>
+        <v>0.0001132153479561215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.3766763955039</v>
+        <v>11.3536155</v>
       </c>
       <c r="H5">
-        <v>9.3766763955039</v>
+        <v>22.707231</v>
       </c>
       <c r="I5">
-        <v>0.1435383017195088</v>
+        <v>0.1610666555281549</v>
       </c>
       <c r="J5">
-        <v>0.1435383017195088</v>
+        <v>0.1379309236788346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156204902765566</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N5">
-        <v>0.156204902765566</v>
+        <v>3.893966</v>
       </c>
       <c r="O5">
-        <v>0.0009079161818779087</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P5">
-        <v>0.0009079161818779087</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q5">
-        <v>1.464682824623865</v>
+        <v>14.736864244691</v>
       </c>
       <c r="R5">
-        <v>1.464682824623865</v>
+        <v>88.42118546814601</v>
       </c>
       <c r="S5">
-        <v>0.0001303207468504157</v>
+        <v>0.001130334116526031</v>
       </c>
       <c r="T5">
-        <v>0.0001303207468504157</v>
+        <v>0.000969358994044105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.54773489794851</v>
+        <v>11.3536155</v>
       </c>
       <c r="H6">
-        <v>1.54773489794851</v>
+        <v>22.707231</v>
       </c>
       <c r="I6">
-        <v>0.02369274883689826</v>
+        <v>0.1610666555281549</v>
       </c>
       <c r="J6">
-        <v>0.02369274883689826</v>
+        <v>0.1379309236788346</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.50091655847057</v>
+        <v>0.291303</v>
       </c>
       <c r="N6">
-        <v>0.50091655847057</v>
+        <v>0.582606</v>
       </c>
       <c r="O6">
-        <v>0.002911497918145221</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P6">
-        <v>0.002911497918145221</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q6">
-        <v>0.7752860385051665</v>
+        <v>3.3073422559965</v>
       </c>
       <c r="R6">
-        <v>0.7752860385051665</v>
+        <v>13.229369023986</v>
       </c>
       <c r="S6">
-        <v>6.89813889137669E-05</v>
+        <v>0.0002536768830131406</v>
       </c>
       <c r="T6">
-        <v>6.89813889137669E-05</v>
+        <v>0.0001450332042149468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.54773489794851</v>
+        <v>1.610485</v>
       </c>
       <c r="H7">
-        <v>1.54773489794851</v>
+        <v>4.831455</v>
       </c>
       <c r="I7">
-        <v>0.02369274883689826</v>
+        <v>0.02284694533897687</v>
       </c>
       <c r="J7">
-        <v>0.02369274883689826</v>
+        <v>0.02934779017585737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>170.507715292399</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N7">
-        <v>170.507715292399</v>
+        <v>1.005135</v>
       </c>
       <c r="O7">
-        <v>0.9910490074779278</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P7">
-        <v>0.9910490074779278</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q7">
-        <v>263.9007413275148</v>
+        <v>0.8093774202375</v>
       </c>
       <c r="R7">
-        <v>263.9007413275148</v>
+        <v>4.856264521425</v>
       </c>
       <c r="S7">
-        <v>0.02348067521923185</v>
+        <v>6.208016142714052E-05</v>
       </c>
       <c r="T7">
-        <v>0.02348067521923185</v>
+        <v>5.323909271716894E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.54773489794851</v>
+        <v>1.610485</v>
       </c>
       <c r="H8">
-        <v>1.54773489794851</v>
+        <v>4.831455</v>
       </c>
       <c r="I8">
-        <v>0.02369274883689826</v>
+        <v>0.02284694533897687</v>
       </c>
       <c r="J8">
-        <v>0.02369274883689826</v>
+        <v>0.02934779017585737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882876332033295</v>
+        <v>182.713089</v>
       </c>
       <c r="N8">
-        <v>0.882876332033295</v>
+        <v>548.139267</v>
       </c>
       <c r="O8">
-        <v>0.005131578422049008</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P8">
-        <v>0.005131578422049008</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q8">
-        <v>1.366458509660706</v>
+        <v>294.256689138165</v>
       </c>
       <c r="R8">
-        <v>1.366458509660706</v>
+        <v>2648.310202243485</v>
       </c>
       <c r="S8">
-        <v>0.0001215811986904539</v>
+        <v>0.02256982009376152</v>
       </c>
       <c r="T8">
-        <v>0.0001215811986904539</v>
+        <v>0.02903335100034724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.54773489794851</v>
+        <v>1.610485</v>
       </c>
       <c r="H9">
-        <v>1.54773489794851</v>
+        <v>4.831455</v>
       </c>
       <c r="I9">
-        <v>0.02369274883689826</v>
+        <v>0.02284694533897687</v>
       </c>
       <c r="J9">
-        <v>0.02369274883689826</v>
+        <v>0.02934779017585737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.156204902765566</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N9">
-        <v>0.156204902765566</v>
+        <v>0.454792</v>
       </c>
       <c r="O9">
-        <v>0.0009079161818779087</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P9">
-        <v>0.0009079161818779087</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q9">
-        <v>0.2417637792409202</v>
+        <v>0.2441452313733333</v>
       </c>
       <c r="R9">
-        <v>0.2417637792409202</v>
+        <v>2.19730708236</v>
       </c>
       <c r="S9">
-        <v>2.151103006218893E-05</v>
+        <v>1.872621473783594E-05</v>
       </c>
       <c r="T9">
-        <v>2.151103006218893E-05</v>
+        <v>2.408901635603844E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.3533217809115</v>
+        <v>1.610485</v>
       </c>
       <c r="H10">
-        <v>4.3533217809115</v>
+        <v>4.831455</v>
       </c>
       <c r="I10">
-        <v>0.06664071456813928</v>
+        <v>0.02284694533897687</v>
       </c>
       <c r="J10">
-        <v>0.06664071456813928</v>
+        <v>0.02934779017585737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.50091655847057</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N10">
-        <v>0.50091655847057</v>
+        <v>3.893966</v>
       </c>
       <c r="O10">
-        <v>0.002911497918145221</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P10">
-        <v>0.002911497918145221</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q10">
-        <v>2.180650964409161</v>
+        <v>2.090391277836666</v>
       </c>
       <c r="R10">
-        <v>2.180650964409161</v>
+        <v>18.81352150053</v>
       </c>
       <c r="S10">
-        <v>0.0001940243017288474</v>
+        <v>0.0001603353697906561</v>
       </c>
       <c r="T10">
-        <v>0.0001940243017288474</v>
+        <v>0.0002062521123147671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.3533217809115</v>
+        <v>1.610485</v>
       </c>
       <c r="H11">
-        <v>4.3533217809115</v>
+        <v>4.831455</v>
       </c>
       <c r="I11">
-        <v>0.06664071456813928</v>
+        <v>0.02284694533897687</v>
       </c>
       <c r="J11">
-        <v>0.06664071456813928</v>
+        <v>0.02934779017585737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>170.507715292399</v>
+        <v>0.291303</v>
       </c>
       <c r="N11">
-        <v>170.507715292399</v>
+        <v>0.582606</v>
       </c>
       <c r="O11">
-        <v>0.9910490074779278</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P11">
-        <v>0.9910490074779278</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q11">
-        <v>742.2749507958575</v>
+        <v>0.469139111955</v>
       </c>
       <c r="R11">
-        <v>742.2749507958575</v>
+        <v>2.81483467173</v>
       </c>
       <c r="S11">
-        <v>0.06604421403037432</v>
+        <v>3.598349925972195E-05</v>
       </c>
       <c r="T11">
-        <v>0.06604421403037432</v>
+        <v>3.085895412216162E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.3533217809115</v>
+        <v>4.851027</v>
       </c>
       <c r="H12">
-        <v>4.3533217809115</v>
+        <v>14.553081</v>
       </c>
       <c r="I12">
-        <v>0.06664071456813928</v>
+        <v>0.06881849176297883</v>
       </c>
       <c r="J12">
-        <v>0.06664071456813928</v>
+        <v>0.08840003013590245</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.882876332033295</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N12">
-        <v>0.882876332033295</v>
+        <v>1.005135</v>
       </c>
       <c r="O12">
-        <v>0.005131578422049008</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P12">
-        <v>0.005131578422049008</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q12">
-        <v>3.843444766091797</v>
+        <v>2.437968511822501</v>
       </c>
       <c r="R12">
-        <v>3.843444766091797</v>
+        <v>14.627811070935</v>
       </c>
       <c r="S12">
-        <v>0.0003419720529077905</v>
+        <v>0.0001869949358407046</v>
       </c>
       <c r="T12">
-        <v>0.0003419720529077905</v>
+        <v>0.0001603642854335743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.3533217809115</v>
+        <v>4.851027</v>
       </c>
       <c r="H13">
-        <v>4.3533217809115</v>
+        <v>14.553081</v>
       </c>
       <c r="I13">
-        <v>0.06664071456813928</v>
+        <v>0.06881849176297883</v>
       </c>
       <c r="J13">
-        <v>0.06664071456813928</v>
+        <v>0.08840003013590245</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.156204902765566</v>
+        <v>182.713089</v>
       </c>
       <c r="N13">
-        <v>0.156204902765566</v>
+        <v>548.139267</v>
       </c>
       <c r="O13">
-        <v>0.0009079161818779087</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P13">
-        <v>0.0009079161818779087</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q13">
-        <v>0.6800102054945015</v>
+        <v>886.346127992403</v>
       </c>
       <c r="R13">
-        <v>0.6800102054945015</v>
+        <v>7977.115151931627</v>
       </c>
       <c r="S13">
-        <v>6.050418312832054E-05</v>
+        <v>0.06798374816280787</v>
       </c>
       <c r="T13">
-        <v>6.050418312832054E-05</v>
+        <v>0.08745289127384696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.34150363676498</v>
+        <v>4.851027</v>
       </c>
       <c r="H14">
-        <v>7.34150363676498</v>
+        <v>14.553081</v>
       </c>
       <c r="I14">
-        <v>0.1123838468600806</v>
+        <v>0.06881849176297883</v>
       </c>
       <c r="J14">
-        <v>0.1123838468600806</v>
+        <v>0.08840003013590245</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.50091655847057</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N14">
-        <v>0.50091655847057</v>
+        <v>0.454792</v>
       </c>
       <c r="O14">
-        <v>0.002911497918145221</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P14">
-        <v>0.002911497918145221</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q14">
-        <v>3.677480735727487</v>
+        <v>0.7354027571280001</v>
       </c>
       <c r="R14">
-        <v>3.677480735727487</v>
+        <v>6.618624814152001</v>
       </c>
       <c r="S14">
-        <v>0.000327205336166276</v>
+        <v>5.640622129423127E-05</v>
       </c>
       <c r="T14">
-        <v>0.000327205336166276</v>
+        <v>7.255979953031792E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.34150363676498</v>
+        <v>4.851027</v>
       </c>
       <c r="H15">
-        <v>7.34150363676498</v>
+        <v>14.553081</v>
       </c>
       <c r="I15">
-        <v>0.1123838468600806</v>
+        <v>0.06881849176297883</v>
       </c>
       <c r="J15">
-        <v>0.1123838468600806</v>
+        <v>0.08840003013590245</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>170.507715292399</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N15">
-        <v>170.507715292399</v>
+        <v>3.893966</v>
       </c>
       <c r="O15">
-        <v>0.9910490074779278</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P15">
-        <v>0.9910490074779278</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q15">
-        <v>1251.783011915635</v>
+        <v>6.296578067694</v>
       </c>
       <c r="R15">
-        <v>1251.783011915635</v>
+        <v>56.66920260924601</v>
       </c>
       <c r="S15">
-        <v>0.1113778998872343</v>
+        <v>0.0004829546427998131</v>
       </c>
       <c r="T15">
-        <v>0.1113778998872343</v>
+        <v>0.0006212628901517044</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.34150363676498</v>
+        <v>4.851027</v>
       </c>
       <c r="H16">
-        <v>7.34150363676498</v>
+        <v>14.553081</v>
       </c>
       <c r="I16">
-        <v>0.1123838468600806</v>
+        <v>0.06881849176297883</v>
       </c>
       <c r="J16">
-        <v>0.1123838468600806</v>
+        <v>0.08840003013590245</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.882876332033295</v>
+        <v>0.291303</v>
       </c>
       <c r="N16">
-        <v>0.882876332033295</v>
+        <v>0.582606</v>
       </c>
       <c r="O16">
-        <v>0.005131578422049008</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P16">
-        <v>0.005131578422049008</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q16">
-        <v>6.481639802436161</v>
+        <v>1.413118718181</v>
       </c>
       <c r="R16">
-        <v>6.481639802436161</v>
+        <v>8.478712309085999</v>
       </c>
       <c r="S16">
-        <v>0.0005767065235340498</v>
+        <v>0.0001083878002361967</v>
       </c>
       <c r="T16">
-        <v>0.0005767065235340498</v>
+        <v>9.295188693987668E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.34150363676498</v>
+        <v>7.349149999999999</v>
       </c>
       <c r="H17">
-        <v>7.34150363676498</v>
+        <v>22.04745</v>
       </c>
       <c r="I17">
-        <v>0.1123838468600806</v>
+        <v>0.1042578032940026</v>
       </c>
       <c r="J17">
-        <v>0.1123838468600806</v>
+        <v>0.1339232046066261</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.156204902765566</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N17">
-        <v>0.156204902765566</v>
+        <v>1.005135</v>
       </c>
       <c r="O17">
-        <v>0.0009079161818779087</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P17">
-        <v>0.0009079161818779087</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q17">
-        <v>1.146778861733923</v>
+        <v>3.693443942625</v>
       </c>
       <c r="R17">
-        <v>1.146778861733923</v>
+        <v>22.16066365575</v>
       </c>
       <c r="S17">
-        <v>0.000102035113145956</v>
+        <v>0.0002832913180515619</v>
       </c>
       <c r="T17">
-        <v>0.000102035113145956</v>
+        <v>0.000242946738555393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.68721595801043</v>
+        <v>7.349149999999999</v>
       </c>
       <c r="H18">
-        <v>7.68721595801043</v>
+        <v>22.04745</v>
       </c>
       <c r="I18">
-        <v>0.1176760162154052</v>
+        <v>0.1042578032940026</v>
       </c>
       <c r="J18">
-        <v>0.1176760162154052</v>
+        <v>0.1339232046066261</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.50091655847057</v>
+        <v>182.713089</v>
       </c>
       <c r="N18">
-        <v>0.50091655847057</v>
+        <v>548.139267</v>
       </c>
       <c r="O18">
-        <v>0.002911497918145221</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P18">
-        <v>0.002911497918145221</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q18">
-        <v>3.850653761906631</v>
+        <v>1342.78589802435</v>
       </c>
       <c r="R18">
-        <v>3.850653761906631</v>
+        <v>12085.07308221915</v>
       </c>
       <c r="S18">
-        <v>0.0003426134762267756</v>
+        <v>0.1029931935671971</v>
       </c>
       <c r="T18">
-        <v>0.0003426134762267756</v>
+        <v>0.1324883196702868</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.68721595801043</v>
+        <v>7.349149999999999</v>
       </c>
       <c r="H19">
-        <v>7.68721595801043</v>
+        <v>22.04745</v>
       </c>
       <c r="I19">
-        <v>0.1176760162154052</v>
+        <v>0.1042578032940026</v>
       </c>
       <c r="J19">
-        <v>0.1176760162154052</v>
+        <v>0.1339232046066261</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>170.507715292399</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N19">
-        <v>170.507715292399</v>
+        <v>0.454792</v>
       </c>
       <c r="O19">
-        <v>0.9910490074779278</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P19">
-        <v>0.9910490074779278</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q19">
-        <v>1310.729629959629</v>
+        <v>1.114111542266667</v>
       </c>
       <c r="R19">
-        <v>1310.729629959629</v>
+        <v>10.0270038804</v>
       </c>
       <c r="S19">
-        <v>0.1166226990742339</v>
+        <v>8.545361244629223E-05</v>
       </c>
       <c r="T19">
-        <v>0.1166226990742339</v>
+        <v>0.0001099257643212944</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.68721595801043</v>
+        <v>7.349149999999999</v>
       </c>
       <c r="H20">
-        <v>7.68721595801043</v>
+        <v>22.04745</v>
       </c>
       <c r="I20">
-        <v>0.1176760162154052</v>
+        <v>0.1042578032940026</v>
       </c>
       <c r="J20">
-        <v>0.1176760162154052</v>
+        <v>0.1339232046066261</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.882876332033295</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N20">
-        <v>0.882876332033295</v>
+        <v>3.893966</v>
       </c>
       <c r="O20">
-        <v>0.005131578422049008</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P20">
-        <v>0.005131578422049008</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q20">
-        <v>6.786861028556061</v>
+        <v>9.539113409633332</v>
       </c>
       <c r="R20">
-        <v>6.786861028556061</v>
+        <v>85.8520206867</v>
       </c>
       <c r="S20">
-        <v>0.0006038637056036626</v>
+        <v>0.000731660762377172</v>
       </c>
       <c r="T20">
-        <v>0.0006038637056036626</v>
+        <v>0.0009411933120880174</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.68721595801043</v>
+        <v>7.349149999999999</v>
       </c>
       <c r="H21">
-        <v>7.68721595801043</v>
+        <v>22.04745</v>
       </c>
       <c r="I21">
-        <v>0.1176760162154052</v>
+        <v>0.1042578032940026</v>
       </c>
       <c r="J21">
-        <v>0.1176760162154052</v>
+        <v>0.1339232046066261</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.156204902765566</v>
+        <v>0.291303</v>
       </c>
       <c r="N21">
-        <v>0.156204902765566</v>
+        <v>0.582606</v>
       </c>
       <c r="O21">
-        <v>0.0009079161818779087</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P21">
-        <v>0.0009079161818779087</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q21">
-        <v>1.200780821258927</v>
+        <v>2.140829442449999</v>
       </c>
       <c r="R21">
-        <v>1.200780821258927</v>
+        <v>12.8449766547</v>
       </c>
       <c r="S21">
-        <v>0.0001068399593408936</v>
+        <v>0.000164204033930515</v>
       </c>
       <c r="T21">
-        <v>0.0001068399593408936</v>
+        <v>0.000140819121374545</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.0188039569775</v>
+        <v>9.836560333333333</v>
       </c>
       <c r="H22">
-        <v>35.0188039569775</v>
+        <v>29.509681</v>
       </c>
       <c r="I22">
-        <v>0.5360683717999677</v>
+        <v>0.1395451409104802</v>
       </c>
       <c r="J22">
-        <v>0.5360683717999677</v>
+        <v>0.1792511626713868</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.50091655847057</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N22">
-        <v>0.50091655847057</v>
+        <v>1.005135</v>
       </c>
       <c r="O22">
-        <v>0.002911497918145221</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P22">
-        <v>0.002911497918145221</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q22">
-        <v>17.54149875988475</v>
+        <v>4.9435355353225</v>
       </c>
       <c r="R22">
-        <v>17.54149875988475</v>
+        <v>29.661213211935</v>
       </c>
       <c r="S22">
-        <v>0.001560761948479104</v>
+        <v>0.0003791747538046864</v>
       </c>
       <c r="T22">
-        <v>0.001560761948479104</v>
+        <v>0.0003251750544738756</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.0188039569775</v>
+        <v>9.836560333333333</v>
       </c>
       <c r="H23">
-        <v>35.0188039569775</v>
+        <v>29.509681</v>
       </c>
       <c r="I23">
-        <v>0.5360683717999677</v>
+        <v>0.1395451409104802</v>
       </c>
       <c r="J23">
-        <v>0.5360683717999677</v>
+        <v>0.1792511626713868</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>170.507715292399</v>
+        <v>182.713089</v>
       </c>
       <c r="N23">
-        <v>170.507715292399</v>
+        <v>548.139267</v>
       </c>
       <c r="O23">
-        <v>0.9910490074779278</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P23">
-        <v>0.9910490074779278</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q23">
-        <v>5970.976254976656</v>
+        <v>1797.268323638203</v>
       </c>
       <c r="R23">
-        <v>5970.976254976656</v>
+        <v>16175.41491274383</v>
       </c>
       <c r="S23">
-        <v>0.5312700278126667</v>
+        <v>0.1378525084460669</v>
       </c>
       <c r="T23">
-        <v>0.5312700278126667</v>
+        <v>0.1773306232555778</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.0188039569775</v>
+        <v>9.836560333333333</v>
       </c>
       <c r="H24">
-        <v>35.0188039569775</v>
+        <v>29.509681</v>
       </c>
       <c r="I24">
-        <v>0.5360683717999677</v>
+        <v>0.1395451409104802</v>
       </c>
       <c r="J24">
-        <v>0.5360683717999677</v>
+        <v>0.1792511626713868</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.882876332033295</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N24">
-        <v>0.882876332033295</v>
+        <v>0.454792</v>
       </c>
       <c r="O24">
-        <v>0.005131578422049008</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P24">
-        <v>0.005131578422049008</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q24">
-        <v>30.91727318972933</v>
+        <v>1.491196315705778</v>
       </c>
       <c r="R24">
-        <v>30.91727318972933</v>
+        <v>13.420766841352</v>
       </c>
       <c r="S24">
-        <v>0.002750876889471659</v>
+        <v>0.0001143764400684757</v>
       </c>
       <c r="T24">
-        <v>0.002750876889471659</v>
+        <v>0.000147131493156922</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.836560333333333</v>
+      </c>
+      <c r="H25">
+        <v>29.509681</v>
+      </c>
+      <c r="I25">
+        <v>0.1395451409104802</v>
+      </c>
+      <c r="J25">
+        <v>0.1792511626713868</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.893966</v>
+      </c>
+      <c r="O25">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P25">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q25">
+        <v>12.76774383164956</v>
+      </c>
+      <c r="R25">
+        <v>114.909694484846</v>
+      </c>
+      <c r="S25">
+        <v>0.0009793003589062294</v>
+      </c>
+      <c r="T25">
+        <v>0.001259751780775139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.836560333333333</v>
+      </c>
+      <c r="H26">
+        <v>29.509681</v>
+      </c>
+      <c r="I26">
+        <v>0.1395451409104802</v>
+      </c>
+      <c r="J26">
+        <v>0.1792511626713868</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.291303</v>
+      </c>
+      <c r="N26">
+        <v>0.582606</v>
+      </c>
+      <c r="O26">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P26">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q26">
+        <v>2.865419534781</v>
+      </c>
+      <c r="R26">
+        <v>17.192517208686</v>
+      </c>
+      <c r="S26">
+        <v>0.0002197809116338931</v>
+      </c>
+      <c r="T26">
+        <v>0.0001884810874029923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>35.0188039569775</v>
-      </c>
-      <c r="H25">
-        <v>35.0188039569775</v>
-      </c>
-      <c r="I25">
-        <v>0.5360683717999677</v>
-      </c>
-      <c r="J25">
-        <v>0.5360683717999677</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.156204902765566</v>
-      </c>
-      <c r="N25">
-        <v>0.156204902765566</v>
-      </c>
-      <c r="O25">
-        <v>0.0009079161818779087</v>
-      </c>
-      <c r="P25">
-        <v>0.0009079161818779087</v>
-      </c>
-      <c r="Q25">
-        <v>5.470108867066089</v>
-      </c>
-      <c r="R25">
-        <v>5.470108867066089</v>
-      </c>
-      <c r="S25">
-        <v>0.0004867051493501339</v>
-      </c>
-      <c r="T25">
-        <v>0.0004867051493501339</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>35.4893295</v>
+      </c>
+      <c r="H27">
+        <v>70.97865900000001</v>
+      </c>
+      <c r="I27">
+        <v>0.5034649631654063</v>
+      </c>
+      <c r="J27">
+        <v>0.4311468887313926</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5025675000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.005135</v>
+      </c>
+      <c r="O27">
+        <v>0.002717219326525538</v>
+      </c>
+      <c r="P27">
+        <v>0.001814075008651434</v>
+      </c>
+      <c r="Q27">
+        <v>17.83578360349125</v>
+      </c>
+      <c r="R27">
+        <v>71.34313441396502</v>
+      </c>
+      <c r="S27">
+        <v>0.00136802472814151</v>
+      </c>
+      <c r="T27">
+        <v>0.00078213279590544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>35.4893295</v>
+      </c>
+      <c r="H28">
+        <v>70.97865900000001</v>
+      </c>
+      <c r="I28">
+        <v>0.5034649631654063</v>
+      </c>
+      <c r="J28">
+        <v>0.4311468887313926</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>182.713089</v>
+      </c>
+      <c r="N28">
+        <v>548.139267</v>
+      </c>
+      <c r="O28">
+        <v>0.9878703589865653</v>
+      </c>
+      <c r="P28">
+        <v>0.9892857631315353</v>
+      </c>
+      <c r="Q28">
+        <v>6484.365019483826</v>
+      </c>
+      <c r="R28">
+        <v>38906.19011690296</v>
+      </c>
+      <c r="S28">
+        <v>0.4973581138993678</v>
+      </c>
+      <c r="T28">
+        <v>0.4265274788404229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>35.4893295</v>
+      </c>
+      <c r="H29">
+        <v>70.97865900000001</v>
+      </c>
+      <c r="I29">
+        <v>0.5034649631654063</v>
+      </c>
+      <c r="J29">
+        <v>0.4311468887313926</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1515973333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.454792</v>
+      </c>
+      <c r="O29">
+        <v>0.000819637569049068</v>
+      </c>
+      <c r="P29">
+        <v>0.0008208119320634572</v>
+      </c>
+      <c r="Q29">
+        <v>5.380087713988001</v>
+      </c>
+      <c r="R29">
+        <v>32.280526283928</v>
+      </c>
+      <c r="S29">
+        <v>0.0004126587985102722</v>
+      </c>
+      <c r="T29">
+        <v>0.0003538905107427628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>35.4893295</v>
+      </c>
+      <c r="H30">
+        <v>70.97865900000001</v>
+      </c>
+      <c r="I30">
+        <v>0.5034649631654063</v>
+      </c>
+      <c r="J30">
+        <v>0.4311468887313926</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.893966</v>
+      </c>
+      <c r="O30">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P30">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q30">
+        <v>46.064747478599</v>
+      </c>
+      <c r="R30">
+        <v>276.3884848715941</v>
+      </c>
+      <c r="S30">
+        <v>0.00353321811069643</v>
+      </c>
+      <c r="T30">
+        <v>0.003030039263124578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>35.4893295</v>
+      </c>
+      <c r="H31">
+        <v>70.97865900000001</v>
+      </c>
+      <c r="I31">
+        <v>0.5034649631654063</v>
+      </c>
+      <c r="J31">
+        <v>0.4311468887313926</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.291303</v>
+      </c>
+      <c r="N31">
+        <v>0.582606</v>
+      </c>
+      <c r="O31">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P31">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q31">
+        <v>10.3381481513385</v>
+      </c>
+      <c r="R31">
+        <v>41.352592605354</v>
+      </c>
+      <c r="S31">
+        <v>0.000792947628690288</v>
+      </c>
+      <c r="T31">
+        <v>0.0004533473211969384</v>
       </c>
     </row>
   </sheetData>
